--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,218 +14,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>id</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>harCode</t>
+    </r>
+  </si>
+  <si>
+    <t>charName</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>manualSkillsId</t>
+  </si>
+  <si>
+    <t>passiveSkillsId</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rMagic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rPys</t>
+    </r>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>axHp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hield</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>axShield</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ierceAr</t>
+    </r>
+  </si>
+  <si>
+    <t>pysDamageReduceAbs</t>
+  </si>
+  <si>
+    <t>pysDamageReducePerc</t>
+  </si>
+  <si>
+    <t>magicDamageReduceAbs</t>
+  </si>
+  <si>
+    <t>magicDamageReducePerc</t>
+  </si>
+  <si>
     <t>str</t>
   </si>
   <si>
-    <t>charName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>manualSkillsId</t>
-  </si>
-  <si>
-    <t>passiveSkillsId</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tr</t>
+    </r>
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>harCode</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tr</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rMagic</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rPys</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>axHp</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hield</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>axShield</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ierceAr</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pysDamageReduceAbs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pysDamageReducePerc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicDamageReduceAbs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicDamageReducePerc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
@@ -238,48 +246,44 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Dragon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>龙1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>我是一条龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Swordsman</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>人1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>我是一个人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,28 +305,164 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,24 +471,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -371,9 +697,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -390,33 +958,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -674,19 +1286,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="4" width="9.375" style="3"/>
     <col min="5" max="5" width="13.125" style="3" customWidth="1"/>
@@ -697,140 +1309,140 @@
     <col min="10" max="11" width="14.125" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.375" style="3"/>
     <col min="13" max="14" width="16.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>23</v>
+      <c r="Q2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -857,18 +1469,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -898,12 +1510,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="7:7">
       <c r="G7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="9640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>id</t>
   </si>
@@ -258,19 +258,28 @@
     <t>Dragon</t>
   </si>
   <si>
-    <t>龙1</t>
-  </si>
-  <si>
-    <t>我是一条龙</t>
+    <t>标准敌方单位</t>
+  </si>
+  <si>
+    <t>对最近的目标造成物理伤害</t>
+  </si>
+  <si>
+    <t>敌方法师</t>
+  </si>
+  <si>
+    <t>我会治疗，怕不怕</t>
   </si>
   <si>
     <t>Swordsman</t>
   </si>
   <si>
-    <t>人1</t>
-  </si>
-  <si>
-    <t>我是一个人</t>
+    <t>我方测试单位</t>
+  </si>
+  <si>
+    <t>我有很多特点，要深入了解一下么？</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -278,12 +287,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,16 +314,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,7 +329,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +366,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -348,121 +458,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,7 +491,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,25 +563,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,37 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,103 +629,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,30 +678,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,17 +715,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,6 +739,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -795,157 +764,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,19 +942,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1292,15 +1267,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="4" width="9.375" style="3"/>
+    <col min="1" max="2" width="9.375" style="3"/>
+    <col min="3" max="3" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.1666666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
@@ -1320,7 +1297,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1329,46 +1306,46 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1376,7 +1353,7 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1385,46 +1362,46 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1432,17 +1409,17 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -1469,21 +1446,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:14">
-      <c r="A4" s="2">
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
+      <c r="E4" s="3">
+        <v>3</v>
       </c>
       <c r="G4" s="2">
         <v>10</v>
@@ -1507,11 +1484,53 @@
         <v>30</v>
       </c>
       <c r="N4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="7:7">
-      <c r="G7" s="2"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9640"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t>我有很多特点，要深入了解一下么？</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>1,2,4</t>
   </si>
 </sst>
 </file>
@@ -287,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -315,12 +315,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -328,10 +336,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +429,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -352,107 +452,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,169 +491,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,9 +684,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,7 +697,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,11 +717,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,26 +764,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,148 +784,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="9640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>id</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>我有很多特点，要深入了解一下么？</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
   </si>
 </sst>
 </file>
@@ -287,9 +284,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -315,14 +312,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,69 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -407,45 +442,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,19 +488,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,31 +608,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,109 +638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,11 +681,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,22 +692,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,21 +707,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -762,6 +727,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -771,11 +762,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,148 +781,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1500,8 +1497,8 @@
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">

--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DF1D320-8B3C-4F44-A992-868082500AE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +30,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -33,6 +40,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>harCode</t>
@@ -56,6 +64,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -65,6 +74,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -76,6 +86,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -85,6 +96,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rMagic</t>
@@ -96,6 +108,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -105,6 +118,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rPys</t>
@@ -119,6 +133,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -128,6 +143,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>axHp</t>
@@ -139,6 +155,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -148,6 +165,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>hield</t>
@@ -159,6 +177,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -168,6 +187,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>axShield</t>
@@ -179,6 +199,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -188,6 +209,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ierceAr</t>
@@ -214,6 +236,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -223,6 +246,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tr</t>
@@ -237,6 +261,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -246,6 +271,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
@@ -273,23 +299,37 @@
     <t>Swordsman</t>
   </si>
   <si>
-    <t>我方测试单位</t>
-  </si>
-  <si>
     <t>我有很多特点，要深入了解一下么？</t>
+  </si>
+  <si>
+    <t>测试单位3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试单位4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试单位5</t>
+  </si>
+  <si>
+    <t>测试单位6</t>
+  </si>
+  <si>
+    <t>测试单位7</t>
+  </si>
+  <si>
+    <t>测试单位8</t>
+  </si>
+  <si>
+    <t>测试单位9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,167 +341,33 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,192 +376,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -678,251 +416,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -946,61 +442,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1258,23 +710,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9.375" style="3"/>
-    <col min="3" max="3" width="11.6666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.1666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
@@ -1290,7 +742,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:18">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1402,7 +854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:14">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1443,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1484,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1492,10 +944,10 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1526,12 +978,261 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="7:7">
-      <c r="G6" s="2"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2">
+        <v>50</v>
+      </c>
+      <c r="L9" s="2">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2">
+        <v>20</v>
+      </c>
+      <c r="M11" s="2">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DF1D320-8B3C-4F44-A992-868082500AE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18855" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>lyvoi</author>
+  </authors>
+  <commentList>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lyvoi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+供任务详情中的其他解释用，主要是技能里涉及到的需要解释的buff效果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +56,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -40,7 +65,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>harCode</t>
@@ -64,7 +88,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -74,7 +97,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -86,7 +108,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -96,7 +117,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rMagic</t>
@@ -108,7 +128,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -118,7 +137,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rPys</t>
@@ -133,7 +151,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -143,7 +160,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>axHp</t>
@@ -155,7 +171,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -165,7 +180,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>hield</t>
@@ -177,7 +191,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -187,7 +200,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>axShield</t>
@@ -199,7 +211,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -209,7 +220,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ierceAr</t>
@@ -228,6 +238,9 @@
     <t>magicDamageReducePerc</t>
   </si>
   <si>
+    <t>otherBuffInfos</t>
+  </si>
+  <si>
     <t>str</t>
   </si>
   <si>
@@ -236,7 +249,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -246,7 +258,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tr</t>
@@ -261,7 +272,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -271,7 +281,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
@@ -290,6 +299,9 @@
     <t>对最近的目标造成物理伤害</t>
   </si>
   <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
     <t>敌方法师</t>
   </si>
   <si>
@@ -299,15 +311,13 @@
     <t>Swordsman</t>
   </si>
   <si>
+    <t>测试单位3</t>
+  </si>
+  <si>
     <t>我有很多特点，要深入了解一下么？</t>
   </si>
   <si>
-    <t>测试单位3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>测试单位4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试单位5</t>
@@ -328,8 +338,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,33 +357,174 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,24 +533,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -416,9 +759,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -442,17 +1027,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -710,19 +1339,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9.375" style="3"/>
     <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
@@ -742,7 +1371,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,77 +1426,86 @@
       <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:19">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -894,19 +1532,22 @@
       <c r="N3" s="2">
         <v>2</v>
       </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -936,18 +1577,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -978,18 +1619,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1020,18 +1661,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1062,18 +1703,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1104,18 +1745,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1146,18 +1787,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1188,18 +1829,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1231,8 +1872,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A2CF81C-4818-4D7B-9157-7AE40EB04B33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -293,18 +299,9 @@
     <t>Dragon</t>
   </si>
   <si>
-    <t>标准敌方单位</t>
-  </si>
-  <si>
     <t>对最近的目标造成物理伤害</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>敌方法师</t>
-  </si>
-  <si>
     <t>我会治疗，怕不怕</t>
   </si>
   <si>
@@ -333,19 +330,21 @@
   </si>
   <si>
     <t>测试单位9</t>
+  </si>
+  <si>
+    <t>龙-物理输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙-治疗法师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,164 +366,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,210 +413,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -759,255 +453,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,62 +478,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1339,19 +753,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9.375" style="3"/>
     <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
@@ -1371,7 +785,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1489,23 +903,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:19">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -1532,22 +943,19 @@
       <c r="N3" s="2">
         <v>2</v>
       </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -1577,18 +985,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1619,18 +1027,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1661,18 +1069,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1703,18 +1111,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1745,18 +1153,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1787,18 +1195,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1829,18 +1237,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1872,9 +1280,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A2CF81C-4818-4D7B-9157-7AE40EB04B33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18855" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,40 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>lyvoi</author>
-  </authors>
-  <commentList>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>lyvoi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-供任务详情中的其他解释用，主要是技能里涉及到的需要解释的buff效果</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>id</t>
   </si>
@@ -244,9 +206,6 @@
     <t>magicDamageReducePerc</t>
   </si>
   <si>
-    <t>otherBuffInfos</t>
-  </si>
-  <si>
     <t>str</t>
   </si>
   <si>
@@ -299,9 +258,18 @@
     <t>Dragon</t>
   </si>
   <si>
+    <t>龙-物理输出</t>
+  </si>
+  <si>
     <t>对最近的目标造成物理伤害</t>
   </si>
   <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>龙-治疗法师</t>
+  </si>
+  <si>
     <t>我会治疗，怕不怕</t>
   </si>
   <si>
@@ -330,21 +298,19 @@
   </si>
   <si>
     <t>测试单位9</t>
-  </si>
-  <si>
-    <t>龙-物理输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙-治疗法师</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,23 +333,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -392,19 +341,168 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,24 +511,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -453,9 +737,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -478,24 +1004,68 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -753,19 +1323,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9.375" style="3"/>
     <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
@@ -785,7 +1355,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,84 +1410,78 @@
       <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -944,18 +1508,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -985,18 +1549,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1027,18 +1591,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1069,18 +1633,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1111,18 +1675,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1153,18 +1717,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1195,18 +1759,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1237,18 +1801,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1280,9 +1844,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>id</t>
   </si>
@@ -264,9 +264,6 @@
     <t>对最近的目标造成物理伤害</t>
   </si>
   <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
     <t>龙-治疗法师</t>
   </si>
   <si>
@@ -298,6 +295,27 @@
   </si>
   <si>
     <t>测试单位9</t>
+  </si>
+  <si>
+    <t>测试单位10</t>
+  </si>
+  <si>
+    <t>测试单位11</t>
+  </si>
+  <si>
+    <t>测试单位12</t>
+  </si>
+  <si>
+    <t>测试单位13</t>
+  </si>
+  <si>
+    <t>测试单位14</t>
+  </si>
+  <si>
+    <t>测试单位15</t>
+  </si>
+  <si>
+    <t>测试单位16</t>
   </si>
 </sst>
 </file>
@@ -310,7 +328,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,16 +350,115 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,25 +470,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,58 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,37 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -481,28 +501,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +534,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -541,19 +636,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,85 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,61 +690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,6 +726,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -749,6 +760,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,36 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -812,26 +817,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,152 +827,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,12 +989,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,10 +1310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
@@ -1474,14 +1455,14 @@
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
+      <c r="E3" s="2">
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -1515,11 +1496,11 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -1554,13 +1535,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1596,13 +1577,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1638,13 +1619,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1680,13 +1661,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1722,13 +1703,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1764,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1806,13 +1787,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1841,6 +1822,300 @@
       </c>
       <c r="N11" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>51</v>
+      </c>
+      <c r="K12" s="2">
+        <v>51</v>
+      </c>
+      <c r="L12" s="2">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2">
+        <v>31</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>52</v>
+      </c>
+      <c r="K13" s="2">
+        <v>52</v>
+      </c>
+      <c r="L13" s="2">
+        <v>22</v>
+      </c>
+      <c r="M13" s="2">
+        <v>32</v>
+      </c>
+      <c r="N13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>53</v>
+      </c>
+      <c r="K14" s="2">
+        <v>53</v>
+      </c>
+      <c r="L14" s="2">
+        <v>23</v>
+      </c>
+      <c r="M14" s="2">
+        <v>33</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2">
+        <v>54</v>
+      </c>
+      <c r="K15" s="2">
+        <v>54</v>
+      </c>
+      <c r="L15" s="2">
+        <v>24</v>
+      </c>
+      <c r="M15" s="2">
+        <v>34</v>
+      </c>
+      <c r="N15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>7</v>
+      </c>
+      <c r="J16" s="2">
+        <v>55</v>
+      </c>
+      <c r="K16" s="2">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>35</v>
+      </c>
+      <c r="N16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8</v>
+      </c>
+      <c r="I17" s="2">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2">
+        <v>56</v>
+      </c>
+      <c r="K17" s="2">
+        <v>56</v>
+      </c>
+      <c r="L17" s="2">
+        <v>26</v>
+      </c>
+      <c r="M17" s="2">
+        <v>36</v>
+      </c>
+      <c r="N17" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2">
+        <v>57</v>
+      </c>
+      <c r="K18" s="2">
+        <v>57</v>
+      </c>
+      <c r="L18" s="2">
+        <v>27</v>
+      </c>
+      <c r="M18" s="2">
+        <v>37</v>
+      </c>
+      <c r="N18" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43484BD3-A0AB-4595-A0AB-F769B7CEBFE0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -255,9 +261,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>Dragon</t>
-  </si>
-  <si>
     <t>龙-物理输出</t>
   </si>
   <si>
@@ -270,9 +273,6 @@
     <t>我会治疗，怕不怕</t>
   </si>
   <si>
-    <t>Swordsman</t>
-  </si>
-  <si>
     <t>测试单位3</t>
   </si>
   <si>
@@ -316,19 +316,185 @@
   </si>
   <si>
     <t>测试单位16</t>
+  </si>
+  <si>
+    <r>
+      <t>De</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stroyer</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xcutioner</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olyat</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K416</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unter</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntruder</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carecrow</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MP45</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ector</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2000</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>98K</t>
+  </si>
+  <si>
+    <t>OTs12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon_db</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,164 +516,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,192 +553,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -724,255 +593,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,62 +618,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1304,19 +893,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9.375" style="3"/>
     <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
@@ -1336,7 +925,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:18">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1448,18 +1037,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:14">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1489,18 +1078,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -1530,18 +1119,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1572,18 +1161,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1614,18 +1203,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1656,18 +1245,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1698,18 +1287,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1740,18 +1329,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1782,18 +1371,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1824,18 +1413,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1866,18 +1455,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1908,18 +1497,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1950,18 +1539,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1992,18 +1581,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2034,18 +1623,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2076,18 +1665,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -2119,8 +1708,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43484BD3-A0AB-4595-A0AB-F769B7CEBFE0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD92EEA2-B78E-40A8-9C2B-69587C2F8AA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -30,6 +30,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -39,6 +40,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>harCode</t>
@@ -62,6 +64,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -71,6 +74,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -82,6 +86,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -91,6 +96,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rMagic</t>
@@ -102,6 +108,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -111,6 +118,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rPys</t>
@@ -125,6 +133,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -134,6 +143,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>axHp</t>
@@ -145,6 +155,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -154,6 +165,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>hield</t>
@@ -165,6 +177,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -174,6 +187,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>axShield</t>
@@ -185,6 +199,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -194,6 +209,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ierceAr</t>
@@ -220,6 +236,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -229,6 +246,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tr</t>
@@ -243,6 +261,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -252,6 +271,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
@@ -315,11 +335,12 @@
     <t>测试单位15</t>
   </si>
   <si>
-    <t>测试单位16</t>
-  </si>
-  <si>
-    <r>
-      <t>De</t>
+    <t>yuji</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -330,13 +351,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>stroyer</t>
+      <t>hange</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>E</t>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -346,13 +367,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xcutioner</t>
+      <t>aji</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>G</t>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -362,13 +383,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>olyat</t>
+      <t>iaochan</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>H</t>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -378,13 +399,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>K416</t>
+      <t>iaochanhong</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>H</t>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -394,13 +415,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>unter</t>
+      <t>onvyemei</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>I</t>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -410,13 +431,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ntruder</t>
+      <t>udanxianzi</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>S</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -426,13 +447,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>carecrow</t>
+      <t>vshizhuang1</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>U</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -442,13 +463,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MP45</t>
+      <t>vzhujueliujie</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>V</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -458,13 +479,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ector</t>
+      <t>vshizhuang2_1</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>W</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -474,19 +495,76 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A2000</t>
+      <t>vshizhuang5</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>98K</t>
-  </si>
-  <si>
-    <t>OTs12</t>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vshizhuang6</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Dragon_db</t>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vshizhuang7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vshizhuang8</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vzhujueerjie</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -506,12 +584,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -519,17 +599,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -599,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,9 +693,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,15 +970,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.375" style="3"/>
+    <col min="1" max="1" width="9.375" style="3"/>
+    <col min="2" max="2" width="18.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="30.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="3" customWidth="1"/>
@@ -1042,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1082,7 +1154,7 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1123,7 +1195,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1165,7 +1237,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1207,7 +1279,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1249,7 +1321,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1291,7 +1363,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1333,8 +1405,8 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>53</v>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
@@ -1375,8 +1447,8 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>48</v>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -1417,8 +1489,8 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>49</v>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
@@ -1431,36 +1503,36 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>50</v>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>36</v>
@@ -1473,36 +1545,36 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>37</v>
@@ -1515,36 +1587,36 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M14" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>52</v>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
@@ -1557,36 +1629,36 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>52</v>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
@@ -1599,36 +1671,36 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L16" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M16" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -1641,75 +1713,33 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L17" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M17" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N17" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>17</v>
-      </c>
-      <c r="H18" s="2">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2">
-        <v>9</v>
-      </c>
-      <c r="J18" s="2">
-        <v>57</v>
-      </c>
-      <c r="K18" s="2">
-        <v>57</v>
-      </c>
-      <c r="L18" s="2">
-        <v>27</v>
-      </c>
-      <c r="M18" s="2">
-        <v>37</v>
-      </c>
-      <c r="N18" s="2">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD92EEA2-B78E-40A8-9C2B-69587C2F8AA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C374B72E-1C75-47A2-BE44-B88F11A68F88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -281,60 +281,9 @@
     <t>float</t>
   </si>
   <si>
-    <t>龙-物理输出</t>
-  </si>
-  <si>
-    <t>对最近的目标造成物理伤害</t>
-  </si>
-  <si>
-    <t>龙-治疗法师</t>
-  </si>
-  <si>
-    <t>我会治疗，怕不怕</t>
-  </si>
-  <si>
-    <t>测试单位3</t>
-  </si>
-  <si>
     <t>我有很多特点，要深入了解一下么？</t>
   </si>
   <si>
-    <t>测试单位4</t>
-  </si>
-  <si>
-    <t>测试单位5</t>
-  </si>
-  <si>
-    <t>测试单位6</t>
-  </si>
-  <si>
-    <t>测试单位7</t>
-  </si>
-  <si>
-    <t>测试单位8</t>
-  </si>
-  <si>
-    <t>测试单位9</t>
-  </si>
-  <si>
-    <t>测试单位10</t>
-  </si>
-  <si>
-    <t>测试单位11</t>
-  </si>
-  <si>
-    <t>测试单位12</t>
-  </si>
-  <si>
-    <t>测试单位13</t>
-  </si>
-  <si>
-    <t>测试单位14</t>
-  </si>
-  <si>
-    <t>测试单位15</t>
-  </si>
-  <si>
     <t>yuji</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -565,6 +514,70 @@
       </rPr>
       <t>vzhujueerjie</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜魅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡丹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞美人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔梗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梧桐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>棠棣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>栀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>舜华</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -970,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1114,13 +1127,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1155,13 +1168,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -1196,13 +1209,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1238,13 +1251,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1280,13 +1293,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1322,13 +1335,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1364,13 +1377,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1406,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1448,13 +1461,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1490,13 +1503,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1532,13 +1545,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1574,13 +1587,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1616,13 +1629,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1658,13 +1671,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1700,13 +1713,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1735,6 +1748,16 @@
       </c>
       <c r="N17" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C374B72E-1C75-47A2-BE44-B88F11A68F88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63673E5A-C10D-4CA2-BF5A-181DCA13A48C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -529,27 +529,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>桔梗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>梧桐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>棠棣</t>
+    <t>荷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>舜华</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂蝉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋蝉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>芰</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -557,27 +557,55 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>荷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>栀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>舜华</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>郁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师</t>
+    <t>湘妃竹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海棠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月魅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐言</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001,100002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200002,200001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200003,200001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>300003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>300002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +734,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -995,7 +1035,7 @@
     <col min="2" max="2" width="18.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="30.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
@@ -1023,7 +1063,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1079,7 +1119,7 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1133,10 +1173,10 @@
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -1171,13 +1211,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3">
-        <v>3</v>
+      <c r="E4" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>10</v>
@@ -1212,13 +1252,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
+      <c r="E5" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1254,13 +1294,13 @@
         <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1296,13 +1336,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
+      <c r="E7" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1343,8 +1383,8 @@
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1385,8 +1425,8 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
+      <c r="E9" s="10">
+        <v>300001</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1422,13 +1462,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
+      <c r="E10" s="10">
+        <v>300002</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1464,13 +1504,13 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2">
-        <v>1</v>
+      <c r="E11" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1506,13 +1546,13 @@
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
+      <c r="E12" s="10">
+        <v>300004</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1548,13 +1588,13 @@
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
+      <c r="E13" s="10">
+        <v>300005</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1590,13 +1630,13 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
+      <c r="E14" s="10">
+        <v>400001</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1632,13 +1672,13 @@
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
+      <c r="E15" s="10">
+        <v>400002</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1674,13 +1714,13 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
+      <c r="E16" s="10">
+        <v>500001</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1716,13 +1756,13 @@
         <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
+      <c r="E17" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1748,16 +1788,6 @@
       </c>
       <c r="N17" s="2">
         <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63673E5A-C10D-4CA2-BF5A-181DCA13A48C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F6122-8758-4149-90AE-297C15BF1ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,10 +581,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -606,6 +602,10 @@
   </si>
   <si>
     <t>300002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002,400003</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1217,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>10</v>
@@ -1258,7 +1258,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1300,7 +1300,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1342,7 +1342,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1384,7 +1384,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1510,7 +1510,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1762,7 +1762,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">

--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F6122-8758-4149-90AE-297C15BF1ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25460" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +24,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -40,7 +33,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>harCode</t>
@@ -64,7 +56,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -74,7 +65,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -86,7 +76,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -96,7 +85,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rMagic</t>
@@ -108,7 +96,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -118,7 +105,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rPys</t>
@@ -133,7 +119,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -143,7 +128,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>axHp</t>
@@ -155,7 +139,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -165,7 +148,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>hield</t>
@@ -177,7 +159,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -187,7 +168,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>axShield</t>
@@ -199,7 +179,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -209,7 +188,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ierceAr</t>
@@ -236,7 +214,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -246,7 +223,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tr</t>
@@ -261,7 +237,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -271,7 +246,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
@@ -281,14 +255,25 @@
     <t>float</t>
   </si>
   <si>
+    <t>yuji</t>
+  </si>
+  <si>
+    <t>虞美人</t>
+  </si>
+  <si>
     <t>我有很多特点，要深入了解一下么？</t>
   </si>
   <si>
-    <t>yuji</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+    <t>100001,100002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>c</t>
     </r>
     <r>
@@ -296,160 +281,229 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>hange</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>月魅</t>
+  </si>
+  <si>
+    <t>100002,400003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>d</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>aji</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>狐言</t>
+  </si>
+  <si>
+    <t>300003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>d</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>iaochan</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>貂蝉</t>
+  </si>
+  <si>
+    <t>300002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>d</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>iaochanhong</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>秋蝉</t>
+  </si>
+  <si>
+    <t>200002,200001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>m</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>onvyemei</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>夜魅</t>
+  </si>
+  <si>
+    <t>200003,200001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>m</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>udanxianzi</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>牡丹</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>vshizhuang1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>芰</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>vzhujueliujie</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>荷</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>vshizhuang2_1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>莲</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>vshizhuang5</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>舜华</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
@@ -457,16 +511,22 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>vshizhuang6</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>柳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
@@ -474,16 +534,22 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>vshizhuang7</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>昙</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
@@ -491,16 +557,22 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>vshizhuang8</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>湘妃竹</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
@@ -508,112 +580,41 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>vzhujueerjie</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜魅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牡丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>虞美人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>舜华</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>貂蝉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋蝉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>芰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>湘妃竹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>海棠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>月魅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐言</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>昙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001,100002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>200002,200001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>200003,200001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>300003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>300002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100002,400003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲华</t>
+  </si>
+  <si>
+    <t>弱鸡物理输出，但是很肉</t>
+  </si>
+  <si>
+    <t>食我眩晕</t>
+  </si>
+  <si>
+    <t>500001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,41 +626,173 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,24 +801,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -708,13 +1027,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,39 +1288,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1017,25 +1622,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="18.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="30.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
@@ -1050,7 +1655,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,50 +1668,50 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1119,64 +1724,64 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -1203,21 +1808,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>61</v>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G4" s="2">
         <v>10</v>
@@ -1244,21 +1849,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1286,21 +1891,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1328,21 +1933,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>56</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1370,21 +1975,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1412,20 +2017,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8">
         <v>300001</v>
       </c>
       <c r="F9" s="2"/>
@@ -1454,20 +2059,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8">
         <v>300002</v>
       </c>
       <c r="F10" s="2"/>
@@ -1496,21 +2101,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1538,20 +2143,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="10">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8">
         <v>300004</v>
       </c>
       <c r="F12" s="2"/>
@@ -1580,20 +2185,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="10">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8">
         <v>300005</v>
       </c>
       <c r="F13" s="2"/>
@@ -1622,20 +2227,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="10">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8">
         <v>400001</v>
       </c>
       <c r="F14" s="2"/>
@@ -1664,20 +2269,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="10">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8">
         <v>400002</v>
       </c>
       <c r="F15" s="2"/>
@@ -1706,20 +2311,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="10">
+        <v>25</v>
+      </c>
+      <c r="E16" s="8">
         <v>500001</v>
       </c>
       <c r="F16" s="2"/>
@@ -1748,21 +2353,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1790,9 +2395,67 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3">
+        <v>500001</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200001</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
+        <v>500002</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9440"/>
+    <workbookView windowWidth="25460" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>id</t>
   </si>
@@ -261,7 +262,63 @@
     <t>虞美人</t>
   </si>
   <si>
-    <t>我有很多特点，要深入了解一下么？</t>
+    <t>基础物理输出</t>
+  </si>
+  <si>
+    <t>200001,200004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hange</t>
+    </r>
+  </si>
+  <si>
+    <t>月魅</t>
+  </si>
+  <si>
+    <t>基础治疗</t>
+  </si>
+  <si>
+    <t>300001,300007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aji</t>
+    </r>
+  </si>
+  <si>
+    <t>狐言</t>
+  </si>
+  <si>
+    <t>法术输出</t>
   </si>
   <si>
     <t>100001,100002</t>
@@ -270,32 +327,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>hange</t>
-    </r>
-  </si>
-  <si>
-    <t>月魅</t>
-  </si>
-  <si>
-    <t>100002,400003</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -307,14 +338,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>aji</t>
-    </r>
-  </si>
-  <si>
-    <t>狐言</t>
-  </si>
-  <si>
-    <t>300003</t>
+      <t>iaochan</t>
+    </r>
+  </si>
+  <si>
+    <t>貂蝉</t>
+  </si>
+  <si>
+    <t>群体治疗</t>
+  </si>
+  <si>
+    <t>300001,300003</t>
   </si>
   <si>
     <r>
@@ -331,30 +365,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>iaochan</t>
-    </r>
-  </si>
-  <si>
-    <t>貂蝉</t>
-  </si>
-  <si>
-    <t>300002</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>iaochanhong</t>
     </r>
   </si>
@@ -362,7 +372,10 @@
     <t>秋蝉</t>
   </si>
   <si>
-    <t>200002,200001</t>
+    <t>物理防御性肉盾</t>
+  </si>
+  <si>
+    <t>400005,400008</t>
   </si>
   <si>
     <r>
@@ -386,7 +399,10 @@
     <t>夜魅</t>
   </si>
   <si>
-    <t>200003,200001</t>
+    <t>魔法防御性肉盾</t>
+  </si>
+  <si>
+    <t>400006,400007</t>
   </si>
   <si>
     <r>
@@ -410,198 +426,130 @@
     <t>牡丹</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vshizhuang1</t>
-    </r>
+    <t>控制型肉盾</t>
+  </si>
+  <si>
+    <t>400003,200001</t>
   </si>
   <si>
     <t>芰</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vzhujueliujie</t>
-    </r>
+    <t>技巧型输出</t>
+  </si>
+  <si>
+    <t>500001,500002,200001</t>
   </si>
   <si>
     <t>荷</t>
   </si>
   <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vshizhuang2_1</t>
-    </r>
+    <t>伤害增强buff型治疗</t>
+  </si>
+  <si>
+    <t>300008</t>
   </si>
   <si>
     <t>莲</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vshizhuang5</t>
-    </r>
+    <t>群体型物理输出</t>
+  </si>
+  <si>
+    <t>200001,200003</t>
   </si>
   <si>
     <t>舜华</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vshizhuang6</t>
-    </r>
+    <t>群体型法术输出</t>
+  </si>
+  <si>
+    <t>100001,100003</t>
   </si>
   <si>
     <t>柳</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vshizhuang7</t>
-    </r>
+    <t>穿甲型物理输出</t>
   </si>
   <si>
     <t>昙</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vshizhuang8</t>
-    </r>
+    <t>破盾型物理输出</t>
+  </si>
+  <si>
+    <t>200005,200006</t>
   </si>
   <si>
     <t>湘妃竹</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vzhujueerjie</t>
-    </r>
+    <t>驱散，伤害增强</t>
+  </si>
+  <si>
+    <t>400001,400002</t>
   </si>
   <si>
     <t>海棠</t>
   </si>
   <si>
-    <t>2001</t>
+    <t>回复护盾型治疗</t>
+  </si>
+  <si>
+    <t>300005</t>
   </si>
   <si>
     <t>莲华</t>
   </si>
   <si>
-    <t>弱鸡物理输出，但是很肉</t>
+    <t>弱鸡物理输出，肉盾</t>
+  </si>
+  <si>
+    <t>200001</t>
   </si>
   <si>
     <t>食我眩晕</t>
   </si>
   <si>
-    <t>500001</t>
+    <t>400009,200001</t>
+  </si>
+  <si>
+    <t>月华</t>
+  </si>
+  <si>
+    <t>高护盾型物理输出</t>
+  </si>
+  <si>
+    <t>日华</t>
+  </si>
+  <si>
+    <t>高物理护甲型输出</t>
+  </si>
+  <si>
+    <t>瞳华</t>
+  </si>
+  <si>
+    <t>对最近的造成伤害</t>
+  </si>
+  <si>
+    <t>200002</t>
+  </si>
+  <si>
+    <t>数值表</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>常规模型</t>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t>肉盾</t>
   </si>
 </sst>
 </file>
@@ -610,8 +558,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -636,12 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -650,7 +592,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,6 +614,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -672,14 +629,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -687,8 +645,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,15 +670,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,7 +685,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,9 +706,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,36 +715,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,8 +733,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,31 +766,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,19 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,127 +826,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,6 +975,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1057,41 +997,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,6 +1016,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1125,157 +1039,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,10 +1232,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1628,10 +1554,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
@@ -1767,7 +1697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:14">
+    <row r="3" s="2" customFormat="1" spans="1:13">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1780,32 +1710,20 @@
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2">
-        <v>50</v>
-      </c>
-      <c r="L3" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M3" s="2">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1819,606 +1737,516 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K4" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L4" s="2">
         <v>20</v>
       </c>
       <c r="M4" s="2">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K5" s="2">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2">
-        <v>20</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L5" s="2"/>
       <c r="M5" s="2">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K6" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L6" s="2">
         <v>20</v>
       </c>
       <c r="M6" s="2">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
       <c r="J7" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="L7" s="2">
         <v>20</v>
       </c>
       <c r="M7" s="2">
-        <v>30</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
         <v>10</v>
       </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="L8" s="2">
         <v>20</v>
       </c>
       <c r="M8" s="2">
-        <v>30</v>
-      </c>
-      <c r="N8" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8">
-        <v>300001</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K9" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2">
         <v>20</v>
       </c>
       <c r="M9" s="2">
-        <v>30</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="8">
-        <v>300002</v>
+        <v>52</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2">
-        <v>50</v>
-      </c>
-      <c r="L10" s="2">
-        <v>20</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2">
-        <v>30</v>
-      </c>
-      <c r="N10" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L11" s="2">
         <v>20</v>
       </c>
       <c r="M11" s="2">
-        <v>30</v>
-      </c>
-      <c r="N11" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8">
-        <v>300004</v>
+        <v>58</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K12" s="2">
-        <v>52</v>
-      </c>
-      <c r="L12" s="2">
-        <v>22</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="2">
-        <v>32</v>
-      </c>
-      <c r="N12" s="2">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="8">
-        <v>300005</v>
+        <v>61</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K13" s="2">
-        <v>53</v>
-      </c>
-      <c r="L13" s="2">
-        <v>23</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="2">
-        <v>33</v>
-      </c>
-      <c r="N13" s="2">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="8">
-        <v>400001</v>
+        <v>64</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K14" s="2">
-        <v>54</v>
-      </c>
-      <c r="L14" s="2">
-        <v>24</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N14" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="8">
-        <v>400002</v>
+        <v>66</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2">
-        <v>7</v>
-      </c>
-      <c r="I15" s="2">
-        <v>7</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K15" s="2">
-        <v>55</v>
-      </c>
-      <c r="L15" s="2">
-        <v>25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2">
-        <v>35</v>
-      </c>
-      <c r="N15" s="2">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="8">
-        <v>500001</v>
+        <v>69</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>16</v>
-      </c>
-      <c r="H16" s="2">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="K16" s="2">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="L16" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M16" s="2">
-        <v>36</v>
-      </c>
-      <c r="N16" s="2">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2">
-        <v>9</v>
-      </c>
-      <c r="I17" s="2">
-        <v>9</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K17" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="L17" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2">
-        <v>37</v>
-      </c>
-      <c r="N17" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>20</v>
+      </c>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>500001</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="9">
-        <v>200001</v>
+        <v>75</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="G18" s="3">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
@@ -2426,31 +2254,139 @@
       <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="M18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>500002</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="G19" s="2">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <v>60</v>
+      </c>
+      <c r="K19" s="2">
+        <v>60</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3">
+        <v>500003</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
+        <v>60</v>
+      </c>
+      <c r="K20" s="2">
+        <v>60</v>
+      </c>
+      <c r="L20" s="2">
+        <v>100</v>
+      </c>
+      <c r="M20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3">
+        <v>500004</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>40</v>
+      </c>
+      <c r="J21" s="2">
+        <v>60</v>
+      </c>
+      <c r="K21" s="2">
+        <v>60</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3">
+        <v>500005</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="2">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>100</v>
+      </c>
+      <c r="K22" s="2">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2458,4 +2394,65 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/config/xlsx/char.xlsx
+++ b/config/xlsx/char.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12220"/>
+    <workbookView windowWidth="25460" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>id</t>
   </si>
@@ -432,6 +432,24 @@
     <t>400003,200001</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vshizhuang1</t>
+    </r>
+  </si>
+  <si>
     <t>芰</t>
   </si>
   <si>
@@ -441,6 +459,24 @@
     <t>500001,500002,200001</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vzhujueliujie</t>
+    </r>
+  </si>
+  <si>
     <t>荷</t>
   </si>
   <si>
@@ -450,6 +486,24 @@
     <t>300008</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vshizhuang2_1</t>
+    </r>
+  </si>
+  <si>
     <t>莲</t>
   </si>
   <si>
@@ -459,6 +513,24 @@
     <t>200001,200003</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vshizhuang5</t>
+    </r>
+  </si>
+  <si>
     <t>舜华</t>
   </si>
   <si>
@@ -468,12 +540,52 @@
     <t>100001,100003</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vshizhuang6</t>
+    </r>
+  </si>
+  <si>
     <t>柳</t>
   </si>
   <si>
     <t>穿甲型物理输出</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vshizhuang7</t>
+    </r>
+  </si>
+  <si>
     <t>昙</t>
   </si>
   <si>
@@ -483,6 +595,26 @@
     <t>200005,200006</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vshizhuang8</t>
+    </r>
+  </si>
+  <si>
     <t>湘妃竹</t>
   </si>
   <si>
@@ -490,6 +622,26 @@
   </si>
   <si>
     <t>400001,400002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vzhujueerjie</t>
+    </r>
   </si>
   <si>
     <t>海棠</t>
@@ -562,10 +714,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -598,16 +763,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -621,9 +778,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,15 +810,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,7 +832,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,47 +863,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,7 +879,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,11 +898,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -766,13 +926,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,19 +1070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,127 +1082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +1130,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,21 +1142,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,15 +1161,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1036,6 +1172,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,157 +1199,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,6 +1378,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1554,14 +1720,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
@@ -1598,46 +1764,46 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1654,46 +1820,46 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1701,7 +1867,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1710,7 +1876,7 @@
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="2">
@@ -1730,7 +1896,7 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1765,7 +1931,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1774,7 +1940,7 @@
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="2"/>
@@ -1799,7 +1965,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1808,7 +1974,7 @@
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="2"/>
@@ -1835,7 +2001,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1844,7 +2010,7 @@
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2"/>
@@ -1873,7 +2039,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1882,7 +2048,7 @@
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="2"/>
@@ -1911,7 +2077,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1920,7 +2086,7 @@
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="2"/>
@@ -1951,17 +2117,17 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="8" t="s">
         <v>53</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1985,17 +2151,17 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2021,17 +2187,17 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2055,17 +2221,17 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
+      <c r="B13" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2089,16 +2255,16 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
+      <c r="B14" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="2"/>
@@ -2125,17 +2291,17 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
+      <c r="B15" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -2159,17 +2325,17 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
+      <c r="B16" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2197,17 +2363,17 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
+      <c r="B17" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2233,17 +2399,17 @@
       <c r="A18" s="3">
         <v>500001</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
+      <c r="B18" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="3">
         <v>30</v>
@@ -2262,17 +2428,17 @@
       <c r="A19" s="3">
         <v>500002</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
+      <c r="B19" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" s="2">
         <v>50</v>
@@ -2294,16 +2460,16 @@
       <c r="A20" s="3">
         <v>500003</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
+      <c r="B20" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="2">
@@ -2328,16 +2494,16 @@
       <c r="A21" s="3">
         <v>500004</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>47</v>
+      <c r="B21" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="2">
@@ -2362,17 +2528,17 @@
       <c r="A22" s="3">
         <v>500005</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G22" s="2">
         <v>50</v>
@@ -2388,6 +2554,9 @@
       <c r="M22" s="3">
         <v>20</v>
       </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2409,10 +2578,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -2420,7 +2589,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -2431,7 +2600,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -2442,7 +2611,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>15</v>
